--- a/biology/Histoire de la zoologie et de la botanique/Julien_Reverchon/Julien_Reverchon.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Julien_Reverchon/Julien_Reverchon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Julien Reverchon est un naturaliste et un botaniste français, né le 3 août 1837 à Diémoz (Isère) et mort le 30 décembre 1905.
 </t>
@@ -513,17 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et formation
-Il est le fils de Jacques Maximilien et de Florine Reverchon[1].
+          <t>Jeunesse et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils de Jacques Maximilien et de Florine Reverchon.
 Julien, très tôt passionné par l’histoire naturelle, avec son frère Elisée, avait déjà constitué une collection de près de 2 000 espèces de plantes.
-Arrivée aux États-Unis
-Son père étant un partisan des thèses de Charles Fourier (1772-1837), il décide de rejoindre Victor Considerant (1808-1893) à La Réunion, près de Dallas au Texas dans sa construction d'un phalanstère[2].
-La famille arrive à La Réunion, en décembre 1856 et apprend alors l’échec de la colonie fouriériste. Aussi, Jacques Reverchon achète une petite ferme dans les environs.
-Carrière
-Julien commence alors à étudier la flore locale.
-Après avoir abandonné quelques années la botanique, il recommence à herboriser en 1869, année où il fait une expédition destinée à récolter des fossiles avec Jacob Boll (1828-1880) dans l’ouest du Texas. Par ses récoltes ultérieures, il contribue à la réalisation de flores signées par Asa Gray (1810-1888) et Charles Sprague Sargent (1841-1927) et à l’enrichissement de nombreuses collections américaines. Il enseigne, à la fin de sa vie, la botanique à la Baylor University College of Medicine and Pharmacie de Dallas[2].
-Vie de famille
-Il se marie avec Marie Henri le 24 juillet 1864 avec qui il aura deux fils qui décéderont de fièvre typhoïde en 1884[1].
 </t>
         </is>
       </c>
@@ -549,17 +558,205 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Arrivée aux États-Unis</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son père étant un partisan des thèses de Charles Fourier (1772-1837), il décide de rejoindre Victor Considerant (1808-1893) à La Réunion, près de Dallas au Texas dans sa construction d'un phalanstère.
+La famille arrive à La Réunion, en décembre 1856 et apprend alors l’échec de la colonie fouriériste. Aussi, Jacques Reverchon achète une petite ferme dans les environs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Julien_Reverchon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Julien_Reverchon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Julien commence alors à étudier la flore locale.
+Après avoir abandonné quelques années la botanique, il recommence à herboriser en 1869, année où il fait une expédition destinée à récolter des fossiles avec Jacob Boll (1828-1880) dans l’ouest du Texas. Par ses récoltes ultérieures, il contribue à la réalisation de flores signées par Asa Gray (1810-1888) et Charles Sprague Sargent (1841-1927) et à l’enrichissement de nombreuses collections américaines. Il enseigne, à la fin de sa vie, la botanique à la Baylor University College of Medicine and Pharmacie de Dallas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Julien_Reverchon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Julien_Reverchon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vie de famille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se marie avec Marie Henri le 24 juillet 1864 avec qui il aura deux fils qui décéderont de fièvre typhoïde en 1884.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Julien_Reverchon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Julien_Reverchon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Héritage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Travaux
-Au moment de sa mort, plus de 2 600 espèces étaient en culture dans sa ferme et son herbier était riche de 20 000 spécimens. Son herbier est conservé au Missouri Botanical Garden de Saint Louis[1].
-Dans la culture populaire
-La ville de Dallas a baptisé un jardin, le Reverchon Park (en) en son honneur[3]. Situé juste au nord du centre-ville, le parc offre des prairies ouvertes, des arbres matures, des affleurements rocheux. Le parc s'appelait à l'origine Turtle Creek Park[4].
-Géant de Kevin Obregon
-En 2012, le sculpteur Kevin Obregon a réalisé une sculpture qui représente Julien Reverchon sous la forme d'un géant. Cette sculpture a été utilisée comme un élément pour le court-métrage d'horreur The Oldest View de Kane Pixels[5],[6].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Travaux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au moment de sa mort, plus de 2 600 espèces étaient en culture dans sa ferme et son herbier était riche de 20 000 spécimens. Son herbier est conservé au Missouri Botanical Garden de Saint Louis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Julien_Reverchon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Julien_Reverchon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Héritage</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ville de Dallas a baptisé un jardin, le Reverchon Park (en) en son honneur. Situé juste au nord du centre-ville, le parc offre des prairies ouvertes, des arbres matures, des affleurements rocheux. Le parc s'appelait à l'origine Turtle Creek Park.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Julien_Reverchon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Julien_Reverchon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Héritage</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Géant de Kevin Obregon</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2012, le sculpteur Kevin Obregon a réalisé une sculpture qui représente Julien Reverchon sous la forme d'un géant. Cette sculpture a été utilisée comme un élément pour le court-métrage d'horreur The Oldest View de Kane Pixels,.
 </t>
         </is>
       </c>
